--- a/LOGS/1cdca64c-977f-49f2-b3a9-942283159474/main_page_service_output/main_pages.xlsx
+++ b/LOGS/1cdca64c-977f-49f2-b3a9-942283159474/main_page_service_output/main_pages.xlsx
@@ -963,10 +963,10 @@
         <v>64740958</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1199,7 +1199,7 @@
         <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
